--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetMMAEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetMMAEmptyMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>3716910  This game has no available Markets</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>3733326  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3751137  This game has no available Markets</t>
   </si>
   <si>
     <t>3716947  This game has no available Markets</t>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +132,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
